--- a/2_Release/Light-Box V1.00.00/Light-Box-B002/Light-Box-B002_BOM_V1.00.00.xlsx
+++ b/2_Release/Light-Box V1.00.00/Light-Box-B002/Light-Box-B002_BOM_V1.00.00.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B9ABD-DD68-43D7-B7EB-C00059ED0A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32587621-E6DB-4746-BA6D-B6C5B499917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Report Time：</t>
   </si>
   <si>
-    <t>2025年8月9日 20:29:36</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Report Date</t>
   </si>
   <si>
-    <t>2025年8月9日</t>
-  </si>
-  <si>
     <t>Report Date&amp;Time</t>
   </si>
   <si>
@@ -174,6 +168,14 @@
   </si>
   <si>
     <t xml:space="preserve">Add into BOM:no; </t>
+  </si>
+  <si>
+    <t>2025.8.9 20:29:36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.8.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -695,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -706,34 +708,34 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -745,28 +747,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,28 +780,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -811,28 +813,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,7 +866,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -870,15 +874,15 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -886,15 +890,15 @@
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -902,7 +906,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>31</v>
@@ -910,31 +914,31 @@
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -942,10 +946,10 @@
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
